--- a/data/Fable_46_GHG.xlsx
+++ b/data/Fable_46_GHG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ev\Documents\Software Projects\SDSN GCH\ScenViz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ev\Documents\Software Projects\SDSN GCH\ScenViz_Template\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE65B28D-0D46-433A-8CBF-9836EA8FB490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AB3803-FDF3-42EA-B901-7575AAC5A98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEDBE79F-B15F-4C4A-97D3-D5B29D814591}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>CropCO2e</t>
   </si>
@@ -59,9 +59,6 @@
     <t>BAU</t>
   </si>
   <si>
-    <t xml:space="preserve">NCNC </t>
-  </si>
-  <si>
     <t>NCNC</t>
   </si>
 </sst>
@@ -69,6 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -118,14 +118,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC63764-0317-4416-A889-DD4E896786E3}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A2" sqref="A2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,445 +550,359 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2000</v>
-      </c>
-      <c r="B2">
-        <v>7.6579064424845562</v>
-      </c>
-      <c r="C2">
-        <v>6.1831926950463814</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>14.440531019999998</v>
+      <c r="A2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3.1835228019129747</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.2865033369096039</v>
+      </c>
+      <c r="D2" s="6">
+        <v>-2.6194003087362887</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5.8506258300862903</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2005</v>
-      </c>
-      <c r="B3">
-        <v>7.5059604364905725</v>
-      </c>
-      <c r="C3">
-        <v>6.1486534495714427</v>
-      </c>
-      <c r="D3">
-        <v>-0.54088977484049527</v>
-      </c>
-      <c r="E3">
-        <v>14.00646154</v>
+      <c r="A3" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.4962180718868998</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.1617241227809671</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-2.0721982759561932</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.5857439187116711</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2010</v>
-      </c>
-      <c r="B4">
-        <v>6.3158938240280342</v>
-      </c>
-      <c r="C4">
-        <v>6.1373485334965991</v>
-      </c>
-      <c r="D4">
-        <v>-1.1348718095125392</v>
-      </c>
-      <c r="E4">
-        <v>12.523875040000002</v>
+      <c r="A4" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.6237581335294249</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.2617645541118749</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-2.4113503259408606</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.4741723617004379</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2015</v>
-      </c>
-      <c r="B5">
-        <v>3.4068079891658338</v>
-      </c>
-      <c r="C5">
-        <v>5.7360038016530526</v>
-      </c>
-      <c r="D5">
-        <v>-2.3603953466325924</v>
-      </c>
-      <c r="E5">
-        <v>9.0351598000000006</v>
+      <c r="A5" s="3">
+        <v>2035</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3.7652678713524668</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5.4652072375320966</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-2.2944271576085375</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6.9360479512760245</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6">
-        <v>3.1835228019129747</v>
-      </c>
-      <c r="C6">
-        <v>5.2865033369096039</v>
-      </c>
-      <c r="D6">
-        <v>-2.6194003087362887</v>
-      </c>
-      <c r="E6">
-        <v>8.2086150199999999</v>
+      <c r="A6" s="3">
+        <v>2040</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3.9204487605088101</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.764918088686561</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-2.1643350728195356</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.5210317763758363</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7">
-        <v>3.4962180718868963</v>
-      </c>
-      <c r="C7">
-        <v>5.1617241227809671</v>
-      </c>
-      <c r="D7">
-        <v>-2.0721982759561932</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="A7" s="3">
+        <v>2045</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4.0895400957064618</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.1446829432686823</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-1.9708103341049563</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8.2634127048701878</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2030</v>
-      </c>
-      <c r="B8">
-        <v>3.6237581335294249</v>
-      </c>
-      <c r="C8">
-        <v>5.2617645541118749</v>
-      </c>
-      <c r="D8">
-        <v>-2.4113503259408606</v>
-      </c>
-      <c r="E8">
-        <v>8.3746651199999995</v>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>2050</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4.2360336067999764</v>
+      </c>
+      <c r="C8" s="9">
+        <v>5.8512049355723077</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-2.3010485267762775</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7.7861900155960058</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3.1835228019129747</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.2865033369096039</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-2.6194003087362887</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5.8506258300862903</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3.4292542816631428</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.1459991242314276</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-2.4146311207698878</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6.1606222851246812</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3.5074875613213328</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4.6336988267872457</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-3.0537422214040557</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5.0874441667045236</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2035</v>
       </c>
-      <c r="B9">
-        <v>3.7652678713524668</v>
-      </c>
-      <c r="C9">
-        <v>5.4652072375320966</v>
-      </c>
-      <c r="D9">
-        <v>-2.2944271576085375</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B12" s="5">
+        <v>3.6119677330192612</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3.981481623377932</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-3.3650590851488693</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.2283902712483226</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>2040</v>
       </c>
-      <c r="B10">
-        <v>3.9204487605088101</v>
-      </c>
-      <c r="C10">
-        <v>5.764918088686561</v>
-      </c>
-      <c r="D10">
-        <v>-2.1643350728195356</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2045</v>
-      </c>
-      <c r="B11">
-        <v>4.0895400957064618</v>
-      </c>
-      <c r="C11">
-        <v>6.1446829432686823</v>
-      </c>
-      <c r="D11">
-        <v>-1.9708103341049563</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2050</v>
-      </c>
-      <c r="B12">
-        <v>4.2360336067999764</v>
-      </c>
-      <c r="C12">
-        <v>5.8512049355723077</v>
-      </c>
-      <c r="D12">
-        <v>-2.3010485267762775</v>
-      </c>
-      <c r="E12">
-        <v>8.0627397399999996</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B13">
-        <v>7.6579064424845562</v>
-      </c>
-      <c r="C13">
-        <v>6.1831926950463814</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>14.440531019999998</v>
+      <c r="B13" s="5">
+        <v>3.8056459239779392</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.2237530456377104</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-3.4740083791622158</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3.5553905904534346</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B14">
-        <v>7.5059604364905725</v>
-      </c>
-      <c r="C14">
-        <v>6.1486534495714427</v>
-      </c>
-      <c r="D14">
-        <v>-0.54088977484049527</v>
-      </c>
-      <c r="E14">
-        <v>14.00646154</v>
+      <c r="A14" s="3">
+        <v>2045</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4.0225033013200644</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.3891741830686106</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-3.6659839754312418</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.7456935089574332</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B15">
-        <v>6.3158938240280342</v>
-      </c>
-      <c r="C15">
-        <v>6.1373485334965991</v>
-      </c>
-      <c r="D15">
-        <v>-1.1348718095125392</v>
-      </c>
-      <c r="E15">
-        <v>12.523875040000002</v>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>2050</v>
+      </c>
+      <c r="B15" s="9">
+        <v>4.2537099070064377</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2.1701744710056765</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-3.5382139910468839</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.8856703869652294</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16">
-        <v>3.4068079891658338</v>
-      </c>
-      <c r="C16">
-        <v>5.7360038016530526</v>
-      </c>
-      <c r="D16">
-        <v>-2.3603953466325924</v>
-      </c>
-      <c r="E16">
-        <v>9.0351598000000006</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B17">
-        <v>3.1835228019129747</v>
-      </c>
-      <c r="C17">
-        <v>5.2865033369096039</v>
-      </c>
-      <c r="D17">
-        <v>-2.6194003087362887</v>
-      </c>
-      <c r="E17">
-        <v>8.2086150199999999</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B18">
-        <v>3.4292542816631428</v>
-      </c>
-      <c r="C18">
-        <v>5.1459991242314276</v>
-      </c>
-      <c r="D18">
-        <v>-2.4146311207698878</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2030</v>
-      </c>
-      <c r="B19">
-        <v>3.5074875613213328</v>
-      </c>
-      <c r="C19">
-        <v>4.6336988267872457</v>
-      </c>
-      <c r="D19">
-        <v>-3.0537422214040557</v>
-      </c>
-      <c r="E19">
-        <v>8.3746651199999995</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2035</v>
-      </c>
-      <c r="B20">
-        <v>3.6119677330192612</v>
-      </c>
-      <c r="C20">
-        <v>3.981481623377932</v>
-      </c>
-      <c r="D20">
-        <v>-3.3650590851488693</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2040</v>
-      </c>
-      <c r="B21">
-        <v>3.8056459239779392</v>
-      </c>
-      <c r="C21">
-        <v>3.2237530456377104</v>
-      </c>
-      <c r="D21">
-        <v>-3.4740083791622158</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2045</v>
-      </c>
-      <c r="B22">
-        <v>4.0225033013200644</v>
-      </c>
-      <c r="C22">
-        <v>2.3891741830686106</v>
-      </c>
-      <c r="D22">
-        <v>-3.6659839754312418</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2050</v>
-      </c>
-      <c r="B23">
-        <v>4.2537099070064377</v>
-      </c>
-      <c r="C23">
-        <v>2.1701744710056765</v>
-      </c>
-      <c r="D23">
-        <v>-3.5382139910468839</v>
-      </c>
-      <c r="E23">
-        <v>8.0627397399999996</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-    </row>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
